--- a/public/formatos/Formato_UsuariosSIREP.xlsx
+++ b/public/formatos/Formato_UsuariosSIREP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIREP_SENA_2022\public\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BK\public\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA23ADF0-A180-4476-83E5-938A3FEA516A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Identificacion</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Vocero</t>
   </si>
   <si>
-    <t>AYUDA</t>
-  </si>
-  <si>
     <t>ROLES</t>
   </si>
   <si>
@@ -70,22 +68,43 @@
     <t>Instructor</t>
   </si>
   <si>
-    <t>Administrativos</t>
-  </si>
-  <si>
-    <t>Externo</t>
-  </si>
-  <si>
-    <t>Auxiliares</t>
-  </si>
-  <si>
-    <t>Estos son los cargos y roles aceptados por el sistema</t>
+    <t>AYUDA CARGOS</t>
+  </si>
+  <si>
+    <t>Administrativo 1</t>
+  </si>
+  <si>
+    <t>Administrativo 2</t>
+  </si>
+  <si>
+    <t>Administrativo 3</t>
+  </si>
+  <si>
+    <t>Auxiliar aseo</t>
+  </si>
+  <si>
+    <t>Visitas</t>
+  </si>
+  <si>
+    <t>Donado</t>
+  </si>
+  <si>
+    <t>Los roles deben digitarse con el número asignado en el sistema</t>
+  </si>
+  <si>
+    <t>AYUDA ROLES</t>
+  </si>
+  <si>
+    <t>Estos son los roles aceptados por el sistema</t>
+  </si>
+  <si>
+    <t>Operarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -556,19 +575,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -621,6 +627,61 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -672,30 +733,96 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1051,10 +1178,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1072,25 +1199,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1101,103 +1228,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="E3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C4" s="13"/>
+      <c r="E4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="E6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="E7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="E8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="20">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
